--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 09:32:53</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:57:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:57:27</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:32:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:32:44</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:51:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:51:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:00:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221831.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:00:00</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:18:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221831.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:18:19</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:30:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:30:53</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:39:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:39:58</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:49:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:49:26</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:57:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:57:32</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:15:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:15:42</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:33:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:33:47</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:44:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:44:45</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:53:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:53:03</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:01:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:01:42</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:19:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:19:29</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:29:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223831.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:29:04</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:38:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223831.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:38:49</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:47:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:47:16</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:56:38</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1943,7 +1943,7 @@
     <t>-55°47'04.200"</t>
   </si>
   <si>
-    <t>32.750,00</t>
+    <t>26.550,00</t>
   </si>
   <si>
     <t>BACIA DE REJEITOS BOM JARDIM</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:56:38</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:12:53</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1292,7 +1292,7 @@
     <t>ITAITUBA</t>
   </si>
   <si>
-    <t>110.997,00</t>
+    <t>115.722,00</t>
   </si>
   <si>
     <t>-19°47'01.777"</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:12:53</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:31:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:31:34</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:43:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:43:20</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:52:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:52:32</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:00:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:00:31</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:16:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:16:22</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:25:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:25:49</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:34:24</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:43:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:43:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:52:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:52:25</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:01:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:01:57</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:24:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:24:32</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:35:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:35:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:44:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:44:09</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:52:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:52:52</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:01:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:01:28</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:19:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:19:14</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:29:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:29:01</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:37:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:37:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:46:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:46:41</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:55:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:55:05</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:07:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:07:19</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:25:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:25:58</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:34:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:34:27</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:43:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:43:28</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:52:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:52:47</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:01:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:01:29</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:16:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:16:14</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:24:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:24:45</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:33:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:33:30</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:42:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:42:23</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:51:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:51:09</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 09:00:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 09:00:09</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 09:29:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 09:29:18</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 09:53:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 09:53:26</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 10:09:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:09:54</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 10:27:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:27:46</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 10:36:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:36:36</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 10:45:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:45:39</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 10:54:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 10:54:30</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:03:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:03:50</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:19:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:19:58</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:29:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223831.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:29:19</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:38:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223831.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:38:13</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:47:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:47:18</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 11:56:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 11:56:20</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:09:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:09:31</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:25:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:25:32</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:34:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:34:14</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:42:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:42:43</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 12:52:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 12:52:33</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:00:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:00:35</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:23:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:23:51</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:41:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:41:37</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:51:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:51:09</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 01:59:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 01:59:52</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:15:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:15:35</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:27:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:27:18</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:36:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:36:37</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:45:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:45:23</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 02:54:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 02:54:24</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:02:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:02:59</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:25:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:25:40</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:36:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:36:31</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:45:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:45:00</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 03:53:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 03:53:47</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:02:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:02:44</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:17:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:17:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:26:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:26:29</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:36:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:36:07</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:44:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:44:23</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 04:53:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 04:53:50</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:02:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:02:55</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:21:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:21:56</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:31:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:31:15</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:40:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:40:09</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:49:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:49:12</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 05:57:23</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7865,7 +7865,7 @@
     <t>Silvanita</t>
   </si>
   <si>
-    <t>15.755,02</t>
+    <t>13.288,93</t>
   </si>
   <si>
     <t>Dique de Contenção de Sedimentos 01</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 05:57:23</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:12:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8069,7 +8069,7 @@
     <t>-37°01'52.800"</t>
   </si>
   <si>
-    <t>9.575,21</t>
+    <t>7.916,08</t>
   </si>
   <si>
     <t>DIQUE DE SAÍDA DE CAVA</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:12:00</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:24:15</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8069,7 +8069,7 @@
     <t>-37°01'52.800"</t>
   </si>
   <si>
-    <t>7.916,08</t>
+    <t>689,44</t>
   </si>
   <si>
     <t>DIQUE DE SAÍDA DE CAVA</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:24:15</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:32:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:32:50</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:42:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7865,7 +7865,7 @@
     <t>Silvanita</t>
   </si>
   <si>
-    <t>13.288,93</t>
+    <t>14.795,80</t>
   </si>
   <si>
     <t>Dique de Contenção de Sedimentos 01</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:42:07</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:50:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225031.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:50:28</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 06:59:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 06:59:53</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:14:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222831.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:14:58</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:28:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222831.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223731.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:28:21</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:37:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223731.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224631.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:37:37</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:46:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224631.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225531.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:46:42</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 07:55:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225531.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 07:55:24</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:09:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220931.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:09:04</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:24:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222431.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:24:15</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:33:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223331.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:33:17</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:42:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224231.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:42:42</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 08:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-31.xlsx
+++ b/sigbm_download_2022-12-31.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225131.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220031.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 31/12/2022 - 08:51:03</t>
+    <t>Informação extraída do SIGBM: 31/12/2022 - 09:00:11</t>
   </si>
   <si>
     <t>ID Barragem</t>
